--- a/data/trans_dic/P23_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,23; 43,8</t>
+          <t>32,37; 44,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,19; 44,81</t>
+          <t>32,91; 45,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,08; 42,8</t>
+          <t>29,92; 41,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,45; 34,24</t>
+          <t>21,58; 34,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,71; 30,81</t>
+          <t>19,64; 30,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,46; 39,92</t>
+          <t>28,0; 40,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,55; 30,94</t>
+          <t>21,08; 31,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,99; 27,05</t>
+          <t>18,91; 26,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,55; 35,69</t>
+          <t>27,68; 35,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,12; 40,34</t>
+          <t>32,2; 40,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,36; 35,07</t>
+          <t>26,99; 34,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,12; 28,74</t>
+          <t>21,45; 28,84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,25; 40,73</t>
+          <t>31,49; 40,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,62; 44,87</t>
+          <t>35,37; 44,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,5; 46,26</t>
+          <t>37,31; 46,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,74; 31,58</t>
+          <t>21,2; 30,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,89; 26,36</t>
+          <t>19,12; 26,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,93; 31,66</t>
+          <t>23,74; 32,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,38; 31,03</t>
+          <t>23,05; 31,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,24; 22,81</t>
+          <t>16,45; 22,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,44; 32,2</t>
+          <t>25,98; 31,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,86; 36,28</t>
+          <t>30,61; 36,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,17; 37,23</t>
+          <t>31,25; 37,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,6; 25,66</t>
+          <t>19,51; 25,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,14; 48,08</t>
+          <t>37,85; 48,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,2; 44,17</t>
+          <t>33,4; 44,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,36; 35,1</t>
+          <t>25,3; 35,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,06; 28,57</t>
+          <t>19,3; 28,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,2; 33,19</t>
+          <t>23,67; 33,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,15; 30,12</t>
+          <t>21,01; 30,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,72; 29,19</t>
+          <t>20,01; 29,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,98; 21,73</t>
+          <t>15,27; 22,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,66; 38,9</t>
+          <t>31,67; 39,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>27,94; 35,67</t>
+          <t>28,06; 35,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,75; 30,64</t>
+          <t>23,78; 30,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,08; 23,72</t>
+          <t>18,23; 23,61</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,11; 49,84</t>
+          <t>40,05; 50,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,46; 36,29</t>
+          <t>26,1; 36,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,93; 42,72</t>
+          <t>33,1; 43,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,63; 31,33</t>
+          <t>18,69; 31,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,29; 30,63</t>
+          <t>22,23; 31,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 31,25</t>
+          <t>21,85; 31,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,83; 33,17</t>
+          <t>23,33; 33,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,98; 20,81</t>
+          <t>9,39; 20,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,16; 38,97</t>
+          <t>32,25; 39,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,38; 32,06</t>
+          <t>25,6; 32,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,24; 36,27</t>
+          <t>29,41; 36,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,74; 23,28</t>
+          <t>13,73; 23,25</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,23; 45,69</t>
+          <t>31,76; 45,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,31; 49,11</t>
+          <t>34,56; 49,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,72; 46,65</t>
+          <t>33,8; 47,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,67; 24,04</t>
+          <t>14,85; 24,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 34,66</t>
+          <t>21,3; 33,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,82; 36,24</t>
+          <t>23,74; 36,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,06; 32,06</t>
+          <t>20,61; 32,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,07; 18,04</t>
+          <t>11,62; 17,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,19; 37,61</t>
+          <t>28,28; 37,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,66; 40,59</t>
+          <t>31,46; 41,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,8; 37,42</t>
+          <t>28,71; 37,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,97; 19,38</t>
+          <t>13,58; 19,37</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,97; 51,29</t>
+          <t>39,88; 52,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,54; 35,91</t>
+          <t>24,93; 36,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,54; 39,01</t>
+          <t>27,82; 39,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,98; 33,54</t>
+          <t>23,13; 33,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,18; 27,58</t>
+          <t>18,34; 28,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,22; 28,78</t>
+          <t>19,24; 29,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,47; 32,47</t>
+          <t>21,38; 31,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,36; 23,17</t>
+          <t>15,05; 22,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,1; 37,9</t>
+          <t>30,31; 38,18</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,16; 30,75</t>
+          <t>23,45; 30,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>26,15; 34,27</t>
+          <t>26,35; 33,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>20,14; 26,74</t>
+          <t>20,2; 26,49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,22; 40,99</t>
+          <t>33,25; 40,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>35,22; 42,97</t>
+          <t>34,83; 42,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,22; 33,68</t>
+          <t>26,37; 33,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,53; 32,56</t>
+          <t>23,28; 32,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,85; 28,97</t>
+          <t>21,84; 28,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,01; 30,99</t>
+          <t>23,96; 31,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,87; 28,42</t>
+          <t>21,67; 28,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,32; 24,65</t>
+          <t>7,37; 25,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,6; 33,78</t>
+          <t>28,37; 33,56</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,31; 35,71</t>
+          <t>30,4; 35,81</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>25,17; 30,19</t>
+          <t>25,06; 30,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,02; 26,88</t>
+          <t>13,58; 26,6</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>36,54; 43,66</t>
+          <t>36,49; 43,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>32,36; 39,45</t>
+          <t>32,34; 39,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,49; 36,49</t>
+          <t>29,42; 36,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,16; 27,95</t>
+          <t>8,89; 28,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,77; 25,8</t>
+          <t>19,76; 26,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,97; 28,62</t>
+          <t>22,33; 28,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,9; 29,44</t>
+          <t>22,93; 29,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,24; 19,12</t>
+          <t>14,35; 19,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,68; 33,41</t>
+          <t>28,85; 33,5</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>28,08; 33,02</t>
+          <t>28,11; 32,81</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>26,99; 31,81</t>
+          <t>27,15; 31,84</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,17; 22,19</t>
+          <t>11,51; 22,18</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>38,16; 41,56</t>
+          <t>38,0; 41,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>35,25; 38,67</t>
+          <t>35,21; 38,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>33,22; 36,49</t>
+          <t>32,99; 36,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,98; 26,68</t>
+          <t>19,25; 26,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>23,14; 26,14</t>
+          <t>23,23; 26,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,35; 28,52</t>
+          <t>25,37; 28,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>24,58; 27,76</t>
+          <t>24,6; 27,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,52; 19,6</t>
+          <t>14,36; 19,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30,98; 33,19</t>
+          <t>30,89; 33,31</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>30,66; 33,0</t>
+          <t>30,6; 32,99</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>29,14; 31,42</t>
+          <t>29,07; 31,37</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17,86; 22,46</t>
+          <t>18,1; 22,57</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>103900</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>114232</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>106331</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>84344</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>65175</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>95977</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>73714</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>65031</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>169075</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>210209</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>180045</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>149375</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>88381; 121418</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>97012; 132861</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>87879; 122585</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>67208; 106245</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>51223; 80841</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>80428; 116333</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>60864; 91416</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>54768; 77529</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>147792; 190904</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>187388; 238150</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>157201; 202125</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>128946; 173328</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>176664</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>199515</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>209041</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>133670</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>112770</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>145152</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>140848</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>99807</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>289433</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>344667</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>349890</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>233477</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>154935; 198022</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>178781; 222752</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>187173; 232909</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>109896; 160588</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>96375; 132951</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>124331; 169100</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>120089; 164421</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>84719; 117159</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>258740; 317840</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>315028; 379994</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>319532; 384295</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>201630; 261580</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>137000</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>125143</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>96331</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>74218</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>93957</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>86447</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>81403</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>64222</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>230956</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>211591</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>177734</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>138439</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>120687; 155868</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>108240; 143519</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>80584; 111956</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>61003; 90465</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>79385; 111539</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>71428; 104818</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>67302; 98919</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>53317; 77451</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>207202; 255426</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>186318; 236197</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>155752; 199656</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>121274; 157059</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>161520</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>117238</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>139287</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>76597</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>98474</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>101276</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>108757</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>73571</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>259995</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>218514</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>248044</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>150168</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>143632; 182401</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>97606; 136539</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>122442; 161134</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>58427; 97959</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>82584; 115588</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>84980; 121095</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>90068; 128282</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>44651; 98698</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>235453; 286978</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>195320; 245185</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>222348; 275071</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>108253; 183309</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>78536</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>88488</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>85131</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>33766</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>56554</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>65439</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>56643</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29856</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>135090</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>153928</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>141774</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>63622</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>64570; 93419</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>73480; 104750</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>71402; 101117</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26542; 43458</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>44235; 70451</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>52121; 80921</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>45045; 70679</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24236; 37153</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>116220; 155337</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>135987; 177734</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>123408; 162402</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>52613; 75048</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>123394</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>82830</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>88230</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>75056</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>63114</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>66879</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>73058</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48078</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>186508</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>149708</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>161288</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>123134</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>108012; 141423</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>68317; 99884</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>73211; 104354</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>62371; 89222</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>51015; 78067</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>53888; 82745</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>58397; 87098</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>38682; 58521</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>166413; 209564</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>129923; 169935</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>141283; 182249</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>106411; 139515</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>227691</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>256593</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>196729</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>173018</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>161353</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>189783</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>173267</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>152222</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>389044</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>446376</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>369996</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>325240</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>204518; 251896</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>230841; 281727</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>172859; 221375</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>145050; 205504</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>139384; 181712</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>166240; 216745</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>149358; 197776</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>62261; 211564</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>355484; 420527</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>412483; 485830</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>336975; 404221</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>199352; 390634</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>296557</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>278596</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>255058</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>183841</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>178407</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>207867</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>214288</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>119160</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>474964</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>486464</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>469347</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>303001</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>271394; 322418</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>251617; 306187</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>229046; 285657</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>82444; 259735</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>154791; 203734</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>183752; 234855</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>189432; 241509</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>102976; 137799</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>440606; 511718</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>450066; 525310</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>435702; 510983</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>189365; 364962</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1272</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1094</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2066</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1305261</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1262636</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1176137</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>834510</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>829803</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>958821</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>921979</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>651946</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>2135065</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2221457</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2098116</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1486457</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1244842; 1361477</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1206177; 1328041</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1119083; 1234664</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>665502; 926490</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>785050; 885840</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>902400; 1013655</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>870508; 975209</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>525297; 713537</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>2055957; 2216426</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>2136501; 2303716</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2015020; 2174439</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1287875; 1605712</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P23_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Provincia-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1967,7 +1967,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
